--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\MatSaiGon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD4B51-B341-4E6A-9E3B-6F59182D9E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC205BE9-43E6-4D25-9B0F-6CC55ABED5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Element reference breaks on modification of innerHTML property of container (
 nextBtnCSL when commonservice add html, the var that refer to nextBtnCSL is no
@@ -35,9 +35,6 @@
     <t>https://stackoverflow.com/questions/5982268/element-reference-breaks-on-modification-of-innerhtml-property-of-container</t>
   </si>
   <si>
-    <t>Overflow hidden work with absolute</t>
-  </si>
-  <si>
     <t>https://stackoverflow.com/questions/5513382/absolute-position-and-overflowhidden</t>
   </si>
   <si>
@@ -63,6 +60,22 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/18960838/document-onload-not-working-for-me</t>
+  </si>
+  <si>
+    <t>Overflow hidden work with absolute, nếu muốn ẩn đối tượng này mà k ẩn th kia,
+trong TH 2 thằng đang nằm cùng 1 cha thì thêm 1 lớp cha bao quanh th muốn ẩn, cùng
+cấp với th k ẩn còn lại và set overflow là được</t>
+  </si>
+  <si>
+    <t>Để thay đổi stacking order, giả sử muốn thẻ con nằm dưới thẻ cha thì phải thay đôi
+cái stacking context của nó</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/3032856/is-it-possible-to-set-the-stacking-order-of-pseudo-elements-below-their-parent-e</t>
+  </si>
+  <si>
+    <t>Có thể thay đổi stacking context của th con chỉ bằng cách set z-index cho nó và k
+set cho th cha</t>
   </si>
 </sst>
 </file>
@@ -104,9 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -389,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" activeCellId="1" sqref="B9 F12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,44 +424,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\MatSaiGon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC205BE9-43E6-4D25-9B0F-6CC55ABED5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB41C65D-A13A-4D1D-88AE-F97E6DD4C1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Element reference breaks on modification of innerHTML property of container (
 nextBtnCSL when commonservice add html, the var that refer to nextBtnCSL is no
@@ -76,6 +76,21 @@
   <si>
     <t>Có thể thay đổi stacking context của th con chỉ bằng cách set z-index cho nó và k
 set cho th cha</t>
+  </si>
+  <si>
+    <t>Xuất hiện error message mặc định của form, cụ thể là trường input date khi để required</t>
+  </si>
+  <si>
+    <t>https://intopia.digital/articles/default-browser-error-messages/</t>
+  </si>
+  <si>
+    <t>Phần validator khi setTimeout trả về cùng id nhưng vẫn k clear được</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/48192692/javascript-cleartimeout-not-working-even-with-timer-variable-available-to-all-fu</t>
+  </si>
+  <si>
+    <t>Khi ngày điền giá trị 09/mm/yyyy thì nên có thông báo khác</t>
   </si>
 </sst>
 </file>
@@ -405,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,6 +492,27 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\MatSaiGon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB41C65D-A13A-4D1D-88AE-F97E6DD4C1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D96A71-64F6-49AF-A6A8-70EA051B420F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Element reference breaks on modification of innerHTML property of container (
 nextBtnCSL when commonservice add html, the var that refer to nextBtnCSL is no
@@ -91,13 +91,19 @@
   </si>
   <si>
     <t>Khi ngày điền giá trị 09/mm/yyyy thì nên có thông báo khác</t>
+  </si>
+  <si>
+    <t>Executing &lt;script&gt; elements inserted with .innerHTML</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/2592092/executing-script-elements-inserted-with-innerhtml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +116,14 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,10 +143,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -140,8 +155,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,22 +437,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.5546875" customWidth="1"/>
+    <col min="1" max="1" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -459,7 +476,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -513,8 +530,20 @@
         <v>19</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{A6B4E859-1917-42E0-B4F7-F69B8BBC3D14}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{69E5A691-3C52-41EE-83B2-5ED9CD77CBAC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\MatSaiGon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D96A71-64F6-49AF-A6A8-70EA051B420F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0067225-F628-49A2-AB0A-E4A8263AD82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Element reference breaks on modification of innerHTML property of container (
 nextBtnCSL when commonservice add html, the var that refer to nextBtnCSL is no
@@ -97,13 +97,25 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/2592092/executing-script-elements-inserted-with-innerhtml</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Màn nesthub resize thành màn iphone thì bị lỗi ở mấy cái slider, translateX không đúng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SetTimeout not clear </t>
+  </si>
+  <si>
+    <t>Validate trường input date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +133,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -156,6 +176,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -536,6 +557,24 @@
       </c>
       <c r="B22" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\MatSaiGon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0067225-F628-49A2-AB0A-E4A8263AD82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2BDD48-5C01-44FD-B8E6-173EC42AFEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Element reference breaks on modification of innerHTML property of container (
 nextBtnCSL when commonservice add html, the var that refer to nextBtnCSL is no
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Validate trường input date</t>
+  </si>
+  <si>
+    <t>đã fix</t>
+  </si>
+  <si>
+    <t>Add and remove same css class instantly</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/4363957/add-and-remove-same-css-class-instantly</t>
   </si>
 </sst>
 </file>
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -546,12 +555,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -559,20 +568,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>25</v>
       </c>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\MatSaiGon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2BDD48-5C01-44FD-B8E6-173EC42AFEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A25AC83-48D1-444A-A03E-9A40E6CB0686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Element reference breaks on modification of innerHTML property of container (
 nextBtnCSL when commonservice add html, the var that refer to nextBtnCSL is no
@@ -470,7 +470,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -590,6 +590,9 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -601,8 +604,9 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{A6B4E859-1917-42E0-B4F7-F69B8BBC3D14}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{69E5A691-3C52-41EE-83B2-5ED9CD77CBAC}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{953D94A6-8EDE-4576-BC2F-0CCA8C424029}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>